--- a/E-raportare.xlsx
+++ b/E-raportare.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\e - raport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CB1F8D-DE16-4095-A91B-9F56DE2239E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362268AA-EA19-4D10-B2F2-82A38994FFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IND TS Decembrie - în martie" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,18 @@
     <sheet name="CONS TS - Decembrie - Total" sheetId="7" r:id="rId7"/>
     <sheet name="5 C - TRIM 4 - Total" sheetId="8" r:id="rId8"/>
     <sheet name="2 INVEST - TRIM 4 - Total" sheetId="9" r:id="rId9"/>
+    <sheet name="M1 - Total" sheetId="10" r:id="rId10"/>
+    <sheet name="65 AUTO - Total" sheetId="11" r:id="rId11"/>
+    <sheet name="1-turism - Total" sheetId="12" r:id="rId12"/>
+    <sheet name="1-CLI (trimestrial) -Total" sheetId="13" r:id="rId13"/>
+    <sheet name="1-AC" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="49">
   <si>
     <t>ORDINE</t>
   </si>
@@ -1352,6 +1357,4637 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9505</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9505</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8453</v>
+      </c>
+      <c r="F2" s="1">
+        <v>197709</v>
+      </c>
+      <c r="G2" s="1">
+        <v>212236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4569</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4569</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3925</v>
+      </c>
+      <c r="F3" s="1">
+        <v>79556</v>
+      </c>
+      <c r="G3" s="1">
+        <v>88085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1774</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1774</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1659</v>
+      </c>
+      <c r="F4" s="1">
+        <v>42132</v>
+      </c>
+      <c r="G4" s="1">
+        <v>43671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>343</v>
+      </c>
+      <c r="D5" s="1">
+        <v>343</v>
+      </c>
+      <c r="E5" s="1">
+        <v>320</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6812</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>102</v>
+      </c>
+      <c r="D6" s="1">
+        <v>102</v>
+      </c>
+      <c r="E6" s="1">
+        <v>92</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2476</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>90</v>
+      </c>
+      <c r="D7" s="1">
+        <v>90</v>
+      </c>
+      <c r="E7" s="1">
+        <v>79</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2006</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>158</v>
+      </c>
+      <c r="D8" s="1">
+        <v>158</v>
+      </c>
+      <c r="E8" s="1">
+        <v>154</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3876</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>178</v>
+      </c>
+      <c r="D9" s="1">
+        <v>178</v>
+      </c>
+      <c r="E9" s="1">
+        <v>156</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3886</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>141</v>
+      </c>
+      <c r="D10" s="1">
+        <v>141</v>
+      </c>
+      <c r="E10" s="1">
+        <v>136</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3636</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1">
+        <v>144</v>
+      </c>
+      <c r="D11" s="1">
+        <v>144</v>
+      </c>
+      <c r="E11" s="1">
+        <v>136</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3954</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>99</v>
+      </c>
+      <c r="D12" s="1">
+        <v>99</v>
+      </c>
+      <c r="E12" s="1">
+        <v>90</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2391</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>96</v>
+      </c>
+      <c r="D13" s="1">
+        <v>96</v>
+      </c>
+      <c r="E13" s="1">
+        <v>92</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2483</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
+        <v>128</v>
+      </c>
+      <c r="D14" s="1">
+        <v>128</v>
+      </c>
+      <c r="E14" s="1">
+        <v>118</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3006</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1">
+        <v>119</v>
+      </c>
+      <c r="D15" s="1">
+        <v>119</v>
+      </c>
+      <c r="E15" s="1">
+        <v>114</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3126</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
+        <v>176</v>
+      </c>
+      <c r="D16" s="1">
+        <v>176</v>
+      </c>
+      <c r="E16" s="1">
+        <v>172</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4480</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1919</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1919</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1738</v>
+      </c>
+      <c r="F17" s="1">
+        <v>45725</v>
+      </c>
+      <c r="G17" s="1">
+        <v>48659</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1">
+        <v>198</v>
+      </c>
+      <c r="D18" s="1">
+        <v>198</v>
+      </c>
+      <c r="E18" s="1">
+        <v>182</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4395</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1">
+        <v>113</v>
+      </c>
+      <c r="D19" s="1">
+        <v>113</v>
+      </c>
+      <c r="E19" s="1">
+        <v>103</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3066</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1">
+        <v>140</v>
+      </c>
+      <c r="D20" s="1">
+        <v>140</v>
+      </c>
+      <c r="E20" s="1">
+        <v>123</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3172</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1">
+        <v>64</v>
+      </c>
+      <c r="E21" s="1">
+        <v>62</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1574</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1">
+        <v>210</v>
+      </c>
+      <c r="D22" s="1">
+        <v>210</v>
+      </c>
+      <c r="E22" s="1">
+        <v>198</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5350</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1">
+        <v>225</v>
+      </c>
+      <c r="D23" s="1">
+        <v>225</v>
+      </c>
+      <c r="E23" s="1">
+        <v>185</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4441</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5051</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1">
+        <v>96</v>
+      </c>
+      <c r="D24" s="1">
+        <v>96</v>
+      </c>
+      <c r="E24" s="1">
+        <v>91</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2474</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1">
+        <v>204</v>
+      </c>
+      <c r="D25" s="1">
+        <v>204</v>
+      </c>
+      <c r="E25" s="1">
+        <v>190</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5075</v>
+      </c>
+      <c r="G25" s="1">
+        <v>5262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1">
+        <v>101</v>
+      </c>
+      <c r="D26" s="1">
+        <v>101</v>
+      </c>
+      <c r="E26" s="1">
+        <v>94</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2788</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1">
+        <v>181</v>
+      </c>
+      <c r="D27" s="1">
+        <v>181</v>
+      </c>
+      <c r="E27" s="1">
+        <v>165</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4035</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1">
+        <v>75</v>
+      </c>
+      <c r="D28" s="1">
+        <v>75</v>
+      </c>
+      <c r="E28" s="1">
+        <v>72</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1">
+        <v>104</v>
+      </c>
+      <c r="D29" s="1">
+        <v>104</v>
+      </c>
+      <c r="E29" s="1">
+        <v>90</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2666</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1">
+        <v>208</v>
+      </c>
+      <c r="D30" s="1">
+        <v>208</v>
+      </c>
+      <c r="E30" s="1">
+        <v>183</v>
+      </c>
+      <c r="F30" s="1">
+        <v>4669</v>
+      </c>
+      <c r="G30" s="1">
+        <v>5164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1">
+        <v>908</v>
+      </c>
+      <c r="D31" s="1">
+        <v>908</v>
+      </c>
+      <c r="E31" s="1">
+        <v>819</v>
+      </c>
+      <c r="F31" s="1">
+        <v>22245</v>
+      </c>
+      <c r="G31" s="1">
+        <v>23603</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1">
+        <v>41</v>
+      </c>
+      <c r="D32" s="1">
+        <v>41</v>
+      </c>
+      <c r="E32" s="1">
+        <v>35</v>
+      </c>
+      <c r="F32" s="1">
+        <v>992</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1">
+        <v>224</v>
+      </c>
+      <c r="D33" s="1">
+        <v>224</v>
+      </c>
+      <c r="E33" s="1">
+        <v>205</v>
+      </c>
+      <c r="F33" s="1">
+        <v>5258</v>
+      </c>
+      <c r="G33" s="1">
+        <v>5577</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="1">
+        <v>96</v>
+      </c>
+      <c r="D34" s="1">
+        <v>96</v>
+      </c>
+      <c r="E34" s="1">
+        <v>90</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2767</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1">
+        <v>151</v>
+      </c>
+      <c r="D35" s="1">
+        <v>151</v>
+      </c>
+      <c r="E35" s="1">
+        <v>139</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3441</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="1">
+        <v>111</v>
+      </c>
+      <c r="D36" s="1">
+        <v>111</v>
+      </c>
+      <c r="E36" s="1">
+        <v>107</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2977</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1">
+        <v>80</v>
+      </c>
+      <c r="D37" s="1">
+        <v>80</v>
+      </c>
+      <c r="E37" s="1">
+        <v>69</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2041</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="1">
+        <v>114</v>
+      </c>
+      <c r="D38" s="1">
+        <v>114</v>
+      </c>
+      <c r="E38" s="1">
+        <v>106</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2889</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="1">
+        <v>91</v>
+      </c>
+      <c r="D39" s="1">
+        <v>91</v>
+      </c>
+      <c r="E39" s="1">
+        <v>68</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1880</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1">
+        <v>334</v>
+      </c>
+      <c r="D40" s="1">
+        <v>334</v>
+      </c>
+      <c r="E40" s="1">
+        <v>312</v>
+      </c>
+      <c r="F40" s="1">
+        <v>8051</v>
+      </c>
+      <c r="G40" s="1">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
+        <v>197</v>
+      </c>
+      <c r="D41" s="1">
+        <v>197</v>
+      </c>
+      <c r="E41" s="1">
+        <v>181</v>
+      </c>
+      <c r="F41" s="1">
+        <v>4415</v>
+      </c>
+      <c r="G41" s="1">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1">
+        <v>88</v>
+      </c>
+      <c r="D42" s="1">
+        <v>88</v>
+      </c>
+      <c r="E42" s="1">
+        <v>84</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2457</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="1">
+        <v>49</v>
+      </c>
+      <c r="D43" s="1">
+        <v>49</v>
+      </c>
+      <c r="E43" s="1">
+        <v>47</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1179</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2357</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2357</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1884</v>
+      </c>
+      <c r="F2" s="1">
+        <v>22058</v>
+      </c>
+      <c r="G2" s="1">
+        <v>24758</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1018</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1018</v>
+      </c>
+      <c r="E3" s="1">
+        <v>779</v>
+      </c>
+      <c r="F3" s="1">
+        <v>9861</v>
+      </c>
+      <c r="G3" s="1">
+        <v>11340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>455</v>
+      </c>
+      <c r="D4" s="1">
+        <v>455</v>
+      </c>
+      <c r="E4" s="1">
+        <v>394</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4799</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>158</v>
+      </c>
+      <c r="D5" s="1">
+        <v>158</v>
+      </c>
+      <c r="E5" s="1">
+        <v>141</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2208</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1">
+        <v>280</v>
+      </c>
+      <c r="G6" s="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1">
+        <v>61</v>
+      </c>
+      <c r="G7" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1">
+        <v>43</v>
+      </c>
+      <c r="F8" s="1">
+        <v>434</v>
+      </c>
+      <c r="G8" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1">
+        <v>234</v>
+      </c>
+      <c r="G9" s="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1">
+        <v>171</v>
+      </c>
+      <c r="G10" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1">
+        <v>283</v>
+      </c>
+      <c r="G11" s="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1">
+        <v>102</v>
+      </c>
+      <c r="G12" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
+        <v>87</v>
+      </c>
+      <c r="G13" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1">
+        <v>190</v>
+      </c>
+      <c r="G14" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1">
+        <v>213</v>
+      </c>
+      <c r="G15" s="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
+        <v>59</v>
+      </c>
+      <c r="D16" s="1">
+        <v>59</v>
+      </c>
+      <c r="E16" s="1">
+        <v>58</v>
+      </c>
+      <c r="F16" s="1">
+        <v>536</v>
+      </c>
+      <c r="G16" s="1">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1">
+        <v>554</v>
+      </c>
+      <c r="D17" s="1">
+        <v>554</v>
+      </c>
+      <c r="E17" s="1">
+        <v>426</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4397</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1">
+        <v>61</v>
+      </c>
+      <c r="E18" s="1">
+        <v>50</v>
+      </c>
+      <c r="F18" s="1">
+        <v>459</v>
+      </c>
+      <c r="G18" s="1">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1">
+        <v>132</v>
+      </c>
+      <c r="G19" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1">
+        <v>36</v>
+      </c>
+      <c r="D20" s="1">
+        <v>36</v>
+      </c>
+      <c r="E20" s="1">
+        <v>32</v>
+      </c>
+      <c r="F20" s="1">
+        <v>208</v>
+      </c>
+      <c r="G20" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1">
+        <v>105</v>
+      </c>
+      <c r="G21" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43</v>
+      </c>
+      <c r="D22" s="1">
+        <v>43</v>
+      </c>
+      <c r="E22" s="1">
+        <v>35</v>
+      </c>
+      <c r="F22" s="1">
+        <v>396</v>
+      </c>
+      <c r="G22" s="1">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1">
+        <v>122</v>
+      </c>
+      <c r="D23" s="1">
+        <v>122</v>
+      </c>
+      <c r="E23" s="1">
+        <v>99</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1346</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1">
+        <v>19</v>
+      </c>
+      <c r="E24" s="1">
+        <v>16</v>
+      </c>
+      <c r="F24" s="1">
+        <v>205</v>
+      </c>
+      <c r="G24" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1">
+        <v>65</v>
+      </c>
+      <c r="D25" s="1">
+        <v>65</v>
+      </c>
+      <c r="E25" s="1">
+        <v>42</v>
+      </c>
+      <c r="F25" s="1">
+        <v>338</v>
+      </c>
+      <c r="G25" s="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1">
+        <v>52</v>
+      </c>
+      <c r="D26" s="1">
+        <v>52</v>
+      </c>
+      <c r="E26" s="1">
+        <v>48</v>
+      </c>
+      <c r="F26" s="1">
+        <v>422</v>
+      </c>
+      <c r="G26" s="1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1">
+        <v>59</v>
+      </c>
+      <c r="D27" s="1">
+        <v>59</v>
+      </c>
+      <c r="E27" s="1">
+        <v>33</v>
+      </c>
+      <c r="F27" s="1">
+        <v>360</v>
+      </c>
+      <c r="G27" s="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1">
+        <v>106</v>
+      </c>
+      <c r="G28" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1">
+        <v>19</v>
+      </c>
+      <c r="D29" s="1">
+        <v>19</v>
+      </c>
+      <c r="E29" s="1">
+        <v>11</v>
+      </c>
+      <c r="F29" s="1">
+        <v>80</v>
+      </c>
+      <c r="G29" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1">
+        <v>38</v>
+      </c>
+      <c r="D30" s="1">
+        <v>38</v>
+      </c>
+      <c r="E30" s="1">
+        <v>28</v>
+      </c>
+      <c r="F30" s="1">
+        <v>240</v>
+      </c>
+      <c r="G30" s="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1">
+        <v>185</v>
+      </c>
+      <c r="D31" s="1">
+        <v>185</v>
+      </c>
+      <c r="E31" s="1">
+        <v>160</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1763</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1">
+        <v>7</v>
+      </c>
+      <c r="F32" s="1">
+        <v>65</v>
+      </c>
+      <c r="G32" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1">
+        <v>38</v>
+      </c>
+      <c r="D33" s="1">
+        <v>38</v>
+      </c>
+      <c r="E33" s="1">
+        <v>29</v>
+      </c>
+      <c r="F33" s="1">
+        <v>290</v>
+      </c>
+      <c r="G33" s="1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="1">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1">
+        <v>11</v>
+      </c>
+      <c r="E34" s="1">
+        <v>8</v>
+      </c>
+      <c r="F34" s="1">
+        <v>76</v>
+      </c>
+      <c r="G34" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1">
+        <v>57</v>
+      </c>
+      <c r="D35" s="1">
+        <v>57</v>
+      </c>
+      <c r="E35" s="1">
+        <v>53</v>
+      </c>
+      <c r="F35" s="1">
+        <v>558</v>
+      </c>
+      <c r="G35" s="1">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="1">
+        <v>18</v>
+      </c>
+      <c r="D36" s="1">
+        <v>18</v>
+      </c>
+      <c r="E36" s="1">
+        <v>16</v>
+      </c>
+      <c r="F36" s="1">
+        <v>127</v>
+      </c>
+      <c r="G36" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1">
+        <v>10</v>
+      </c>
+      <c r="E37" s="1">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1">
+        <v>108</v>
+      </c>
+      <c r="G37" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="1">
+        <v>20</v>
+      </c>
+      <c r="D38" s="1">
+        <v>20</v>
+      </c>
+      <c r="E38" s="1">
+        <v>16</v>
+      </c>
+      <c r="F38" s="1">
+        <v>149</v>
+      </c>
+      <c r="G38" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="1">
+        <v>24</v>
+      </c>
+      <c r="D39" s="1">
+        <v>24</v>
+      </c>
+      <c r="E39" s="1">
+        <v>21</v>
+      </c>
+      <c r="F39" s="1">
+        <v>390</v>
+      </c>
+      <c r="G39" s="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1">
+        <v>145</v>
+      </c>
+      <c r="D40" s="1">
+        <v>145</v>
+      </c>
+      <c r="E40" s="1">
+        <v>125</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1238</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
+        <v>103</v>
+      </c>
+      <c r="D41" s="1">
+        <v>103</v>
+      </c>
+      <c r="E41" s="1">
+        <v>90</v>
+      </c>
+      <c r="F41" s="1">
+        <v>862</v>
+      </c>
+      <c r="G41" s="1">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1">
+        <v>20</v>
+      </c>
+      <c r="D42" s="1">
+        <v>20</v>
+      </c>
+      <c r="E42" s="1">
+        <v>13</v>
+      </c>
+      <c r="F42" s="1">
+        <v>146</v>
+      </c>
+      <c r="G42" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="1">
+        <v>22</v>
+      </c>
+      <c r="D43" s="1">
+        <v>22</v>
+      </c>
+      <c r="E43" s="1">
+        <v>22</v>
+      </c>
+      <c r="F43" s="1">
+        <v>230</v>
+      </c>
+      <c r="G43" s="1">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>403</v>
+      </c>
+      <c r="D2" s="1">
+        <v>403</v>
+      </c>
+      <c r="E2" s="1">
+        <v>287</v>
+      </c>
+      <c r="F2" s="1">
+        <v>8648</v>
+      </c>
+      <c r="G2" s="1">
+        <v>9949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>296</v>
+      </c>
+      <c r="D3" s="1">
+        <v>296</v>
+      </c>
+      <c r="E3" s="1">
+        <v>221</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7005</v>
+      </c>
+      <c r="G3" s="1">
+        <v>7854</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1">
+        <v>725</v>
+      </c>
+      <c r="G4" s="1">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1">
+        <v>530</v>
+      </c>
+      <c r="G5" s="1">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>72</v>
+      </c>
+      <c r="G16" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1">
+        <v>449</v>
+      </c>
+      <c r="G17" s="1">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>25</v>
+      </c>
+      <c r="G18" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>89</v>
+      </c>
+      <c r="G19" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>33</v>
+      </c>
+      <c r="G22" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>48</v>
+      </c>
+      <c r="G23" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1">
+        <v>84</v>
+      </c>
+      <c r="G25" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>25</v>
+      </c>
+      <c r="G26" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>93</v>
+      </c>
+      <c r="G27" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>21</v>
+      </c>
+      <c r="G29" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>31</v>
+      </c>
+      <c r="G30" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1">
+        <v>21</v>
+      </c>
+      <c r="D31" s="1">
+        <v>21</v>
+      </c>
+      <c r="E31" s="1">
+        <v>16</v>
+      </c>
+      <c r="F31" s="1">
+        <v>353</v>
+      </c>
+      <c r="G31" s="1">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>22</v>
+      </c>
+      <c r="G32" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1">
+        <v>13</v>
+      </c>
+      <c r="E33" s="1">
+        <v>9</v>
+      </c>
+      <c r="F33" s="1">
+        <v>237</v>
+      </c>
+      <c r="G33" s="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>21</v>
+      </c>
+      <c r="G34" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>26</v>
+      </c>
+      <c r="G35" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>23</v>
+      </c>
+      <c r="G36" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>24</v>
+      </c>
+      <c r="G38" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1">
+        <v>116</v>
+      </c>
+      <c r="G40" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4</v>
+      </c>
+      <c r="E41" s="1">
+        <v>4</v>
+      </c>
+      <c r="F41" s="1">
+        <v>116</v>
+      </c>
+      <c r="G41" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>902</v>
+      </c>
+      <c r="D2" s="1">
+        <v>265</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>318</v>
+      </c>
+      <c r="D4" s="1">
+        <v>54</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1">
+        <v>354</v>
+      </c>
+      <c r="D17" s="1">
+        <v>123</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1">
+        <v>39</v>
+      </c>
+      <c r="D22" s="1">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1">
+        <v>25</v>
+      </c>
+      <c r="D23" s="1">
+        <v>17</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1">
+        <v>38</v>
+      </c>
+      <c r="D25" s="1">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1">
+        <v>27</v>
+      </c>
+      <c r="D27" s="1">
+        <v>14</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1">
+        <v>31</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1">
+        <v>33</v>
+      </c>
+      <c r="D30" s="1">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1">
+        <v>185</v>
+      </c>
+      <c r="D31" s="1">
+        <v>54</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1">
+        <v>37</v>
+      </c>
+      <c r="D33" s="1">
+        <v>15</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="1">
+        <v>27</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1">
+        <v>27</v>
+      </c>
+      <c r="D35" s="1">
+        <v>6</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="1">
+        <v>24</v>
+      </c>
+      <c r="D36" s="1">
+        <v>8</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1">
+        <v>25</v>
+      </c>
+      <c r="D37" s="1">
+        <v>7</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="1">
+        <v>23</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="1">
+        <v>15</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1">
+        <v>26</v>
+      </c>
+      <c r="D40" s="1">
+        <v>16</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
+        <v>13</v>
+      </c>
+      <c r="D41" s="1">
+        <v>8</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1">
+        <v>9</v>
+      </c>
+      <c r="D42" s="1">
+        <v>6</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>948</v>
+      </c>
+      <c r="D2" s="1">
+        <v>219</v>
+      </c>
+      <c r="E2" s="1">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1">
+        <v>198</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>330</v>
+      </c>
+      <c r="D4" s="1">
+        <v>58</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44</v>
+      </c>
+      <c r="G4" s="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1">
+        <v>373</v>
+      </c>
+      <c r="D17" s="1">
+        <v>93</v>
+      </c>
+      <c r="E17" s="1">
+        <v>9</v>
+      </c>
+      <c r="F17" s="1">
+        <v>50</v>
+      </c>
+      <c r="G17" s="1">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1">
+        <v>41</v>
+      </c>
+      <c r="D22" s="1">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>12</v>
+      </c>
+      <c r="G22" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1">
+        <v>24</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1">
+        <v>26</v>
+      </c>
+      <c r="G24" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1">
+        <v>40</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>8</v>
+      </c>
+      <c r="G26" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1">
+        <v>29</v>
+      </c>
+      <c r="D27" s="1">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1">
+        <v>25</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1">
+        <v>32</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1">
+        <v>34</v>
+      </c>
+      <c r="D30" s="1">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1">
+        <v>195</v>
+      </c>
+      <c r="D31" s="1">
+        <v>43</v>
+      </c>
+      <c r="E31" s="1">
+        <v>15</v>
+      </c>
+      <c r="F31" s="1">
+        <v>74</v>
+      </c>
+      <c r="G31" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>6</v>
+      </c>
+      <c r="G32" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1">
+        <v>40</v>
+      </c>
+      <c r="D33" s="1">
+        <v>16</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="1">
+        <v>28</v>
+      </c>
+      <c r="D34" s="1">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1">
+        <v>32</v>
+      </c>
+      <c r="G34" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1">
+        <v>28</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="1">
+        <v>24</v>
+      </c>
+      <c r="D36" s="1">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1">
+        <v>20</v>
+      </c>
+      <c r="G36" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1">
+        <v>26</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5</v>
+      </c>
+      <c r="E37" s="1">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1">
+        <v>16</v>
+      </c>
+      <c r="G37" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="1">
+        <v>25</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="1">
+        <v>17</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1">
+        <v>31</v>
+      </c>
+      <c r="D40" s="1">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1">
+        <v>30</v>
+      </c>
+      <c r="G40" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
+        <v>15</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1">
+        <v>22</v>
+      </c>
+      <c r="G41" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1">
+        <v>10</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="1">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>8</v>
+      </c>
+      <c r="G43" s="1">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G43"/>
@@ -8271,7 +12907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
